--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sele-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sele-Cd44.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.699506666666667</v>
+        <v>12.67919733333333</v>
       </c>
       <c r="H2">
-        <v>14.09852</v>
+        <v>38.037592</v>
       </c>
       <c r="I2">
-        <v>0.9660495246229048</v>
+        <v>0.9871416146107245</v>
       </c>
       <c r="J2">
-        <v>0.9660495246229047</v>
+        <v>0.9871416146107247</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N2">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O2">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P2">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q2">
-        <v>149.5731411427556</v>
+        <v>206.3598239739618</v>
       </c>
       <c r="R2">
-        <v>1346.1582702848</v>
+        <v>1857.238415765656</v>
       </c>
       <c r="S2">
-        <v>0.110507171133416</v>
+        <v>0.06543327943457709</v>
       </c>
       <c r="T2">
-        <v>0.110507171133416</v>
+        <v>0.06543327943457711</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.699506666666667</v>
+        <v>12.67919733333333</v>
       </c>
       <c r="H3">
-        <v>14.09852</v>
+        <v>38.037592</v>
       </c>
       <c r="I3">
-        <v>0.9660495246229048</v>
+        <v>0.9871416146107245</v>
       </c>
       <c r="J3">
-        <v>0.9660495246229047</v>
+        <v>0.9871416146107247</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>256.389535</v>
       </c>
       <c r="O3">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P3">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q3">
-        <v>401.6347763320223</v>
+        <v>1083.604502822191</v>
       </c>
       <c r="R3">
-        <v>3614.712986988201</v>
+        <v>9752.440525399721</v>
       </c>
       <c r="S3">
-        <v>0.2967345782949998</v>
+        <v>0.3435930253491444</v>
       </c>
       <c r="T3">
-        <v>0.2967345782949998</v>
+        <v>0.3435930253491445</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.699506666666667</v>
+        <v>12.67919733333333</v>
       </c>
       <c r="H4">
-        <v>14.09852</v>
+        <v>38.037592</v>
       </c>
       <c r="I4">
-        <v>0.9660495246229048</v>
+        <v>0.9871416146107245</v>
       </c>
       <c r="J4">
-        <v>0.9660495246229047</v>
+        <v>0.9871416146107247</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N4">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O4">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P4">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q4">
-        <v>181.8503492248356</v>
+        <v>540.3051192615698</v>
       </c>
       <c r="R4">
-        <v>1636.65314302352</v>
+        <v>4862.746073354128</v>
       </c>
       <c r="S4">
-        <v>0.1343541193888586</v>
+        <v>0.1713217968873423</v>
       </c>
       <c r="T4">
-        <v>0.1343541193888586</v>
+        <v>0.1713217968873424</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.699506666666667</v>
+        <v>12.67919733333333</v>
       </c>
       <c r="H5">
-        <v>14.09852</v>
+        <v>38.037592</v>
       </c>
       <c r="I5">
-        <v>0.9660495246229048</v>
+        <v>0.9871416146107245</v>
       </c>
       <c r="J5">
-        <v>0.9660495246229047</v>
+        <v>0.9871416146107247</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N5">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O5">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P5">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q5">
-        <v>574.5044952035379</v>
+        <v>1282.922672520341</v>
       </c>
       <c r="R5">
-        <v>5170.54045683184</v>
+        <v>11546.30405268307</v>
       </c>
       <c r="S5">
-        <v>0.4244536558056304</v>
+        <v>0.4067935129396607</v>
       </c>
       <c r="T5">
-        <v>0.4244536558056304</v>
+        <v>0.4067935129396608</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1651576666666666</v>
+        <v>0.1651576666666667</v>
       </c>
       <c r="H6">
-        <v>0.4954729999999999</v>
+        <v>0.495473</v>
       </c>
       <c r="I6">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="J6">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N6">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O6">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P6">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q6">
-        <v>5.256541322168889</v>
+        <v>2.688017713209889</v>
       </c>
       <c r="R6">
-        <v>47.30887189952001</v>
+        <v>24.192159418889</v>
       </c>
       <c r="S6">
-        <v>0.003883621798812005</v>
+        <v>0.0008523258586213401</v>
       </c>
       <c r="T6">
-        <v>0.003883621798812006</v>
+        <v>0.0008523258586213401</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.1651576666666666</v>
+        <v>0.1651576666666667</v>
       </c>
       <c r="H7">
-        <v>0.4954729999999999</v>
+        <v>0.495473</v>
       </c>
       <c r="I7">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="J7">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>256.389535</v>
       </c>
       <c r="O7">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P7">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q7">
         <v>14.11489911945056</v>
@@ -883,10 +883,10 @@
         <v>127.034092075055</v>
       </c>
       <c r="S7">
-        <v>0.0104283266407792</v>
+        <v>0.004475600533514756</v>
       </c>
       <c r="T7">
-        <v>0.0104283266407792</v>
+        <v>0.004475600533514756</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.1651576666666666</v>
+        <v>0.1651576666666667</v>
       </c>
       <c r="H8">
-        <v>0.4954729999999999</v>
+        <v>0.495473</v>
       </c>
       <c r="I8">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="J8">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N8">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O8">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P8">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q8">
-        <v>6.390879190260888</v>
+        <v>7.037948100286888</v>
       </c>
       <c r="R8">
-        <v>57.51791271234799</v>
+        <v>63.341532902582</v>
       </c>
       <c r="S8">
-        <v>0.004721689836660578</v>
+        <v>0.002231616677237669</v>
       </c>
       <c r="T8">
-        <v>0.004721689836660578</v>
+        <v>0.00223161667723767</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.1651576666666666</v>
+        <v>0.1651576666666667</v>
       </c>
       <c r="H9">
-        <v>0.4954729999999999</v>
+        <v>0.495473</v>
       </c>
       <c r="I9">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="J9">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N9">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O9">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P9">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q9">
-        <v>20.19016646796844</v>
+        <v>16.71119310921867</v>
       </c>
       <c r="R9">
-        <v>181.711498211716</v>
+        <v>150.400737982968</v>
       </c>
       <c r="S9">
-        <v>0.01491683710084342</v>
+        <v>0.005298842319901652</v>
       </c>
       <c r="T9">
-        <v>0.01491683710084343</v>
+        <v>0.005298842319901652</v>
       </c>
     </row>
   </sheetData>
